--- a/Aeroelastic-Results.xlsx
+++ b/Aeroelastic-Results.xlsx
@@ -5,18 +5,20 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\FlightStream\Code Testing\FlightStream_installation_2024_2_Ticket_144\gt-validation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\FlightStream\Code Testing\aeroelastic-validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A38ED08-80A5-4B74-89D6-DF2E6FE10ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C583F146-474F-4A1A-A230-BED715F277A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C86AA7B9-B37A-4A2C-BEB5-69060854C159}"/>
+    <workbookView xWindow="750" yWindow="735" windowWidth="21990" windowHeight="12315" activeTab="1" xr2:uid="{C86AA7B9-B37A-4A2C-BEB5-69060854C159}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="results" sheetId="2" r:id="rId2"/>
+    <sheet name="ref" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>w</t>
   </si>
@@ -99,9 +101,6 @@
     <t>v</t>
   </si>
   <si>
-    <t>Reference</t>
-  </si>
-  <si>
     <t>FS</t>
   </si>
   <si>
@@ -123,7 +122,31 @@
     <t>INVISCID</t>
   </si>
   <si>
-    <t>VISCOUS</t>
+    <t>Aoa 4deg</t>
+  </si>
+  <si>
+    <t>Ref</t>
+  </si>
+  <si>
+    <t>AOA 4deg</t>
+  </si>
+  <si>
+    <t>AOA 2deg</t>
+  </si>
+  <si>
+    <t>dy</t>
+  </si>
+  <si>
+    <t>dz</t>
+  </si>
+  <si>
+    <t>Aoa 2deg</t>
+  </si>
+  <si>
+    <t>Twist</t>
+  </si>
+  <si>
+    <t>Deflection</t>
   </si>
 </sst>
 </file>
@@ -135,7 +158,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +169,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -173,13 +203,15 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -575,10 +607,34 @@
               <a:rPr lang="en-US" baseline="0"/>
               <a:t> Verification</a:t>
             </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>AoA = 2 deg</a:t>
+            </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.33362628282589257"/>
+          <c:y val="4.0088194026859092E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -590,7 +646,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11331438812691047"/>
+          <c:y val="0.22153153968998149"/>
+          <c:w val="0.84464859466827369"/>
+          <c:h val="0.59890206651159172"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -599,11 +665,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>results!$A$1</c:f>
+              <c:f>ref!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Reference</c:v>
+                  <c:v>Ref</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -616,7 +682,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>results!$A$2:$A$7</c:f>
+              <c:f>ref!$D$3:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -643,7 +709,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>results!$B$2:$B$7</c:f>
+              <c:f>ref!$E$3:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -711,253 +777,193 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="24">
                   <c:v>1.6</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="25">
                   <c:v>2.4</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="26">
                   <c:v>3.2</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="27">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="28">
                   <c:v>4.8</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.2</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="29">
                   <c:v>5.6</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="30">
                   <c:v>6.4</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>6.8</c:v>
-                </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="31">
                   <c:v>7.2</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>7.6</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="32">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>8.4</c:v>
-                </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="33">
                   <c:v>8.8000000000000007</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>9.1999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="34">
                   <c:v>9.6</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="35">
                   <c:v>10.4</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>10.8</c:v>
-                </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="36">
                   <c:v>11.2</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>11.6</c:v>
-                </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="37">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>12.4</c:v>
-                </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="38">
                   <c:v>12.8</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>13.2</c:v>
-                </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="39">
                   <c:v>13.6</c:v>
                 </c:pt>
-                <c:pt idx="35">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="40">
                   <c:v>14.4</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>14.8</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>15.2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>15.6</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>results!$D$9:$D$49</c:f>
+              <c:f>results!$D$10:$D$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.52229081652894E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5236758463675902E-3</c:v>
+                  <c:v>5.8794619629050901E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.77355745189549E-2</c:v>
+                  <c:v>0.12761794469860199</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.9104023380713698E-2</c:v>
+                  <c:v>0.218719975132522</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.8110321899066198E-2</c:v>
+                  <c:v>0.32929469495258401</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.104251644956845</c:v>
+                  <c:v>0.45672974013745099</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.147042994298935</c:v>
+                  <c:v>0.59861927812176696</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.19601854470868299</c:v>
+                  <c:v>0.75276652122152998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.25073243832994502</c:v>
+                  <c:v>0.91718006723999701</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.31075932947540702</c:v>
+                  <c:v>1.09006893300272</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.37569447651239302</c:v>
+                  <c:v>1.2698376201896</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.44515358400284799</c:v>
+                  <c:v>1.4550778418480199</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.51877252632235704</c:v>
+                  <c:v>1.64455671459667</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.59620662425625204</c:v>
+                  <c:v>1.8372076894893301</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.67713065895300395</c:v>
+                  <c:v>2.03212310302664</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.76123750444407001</c:v>
+                  <c:v>2.2285522640490898</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.84823859050929795</c:v>
+                  <c:v>2.4259027053465299</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.93786234206991304</c:v>
+                  <c:v>2.62373754254914</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.0298548335559301</c:v>
+                  <c:v>2.8217677312916498</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.12397882651654</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.22001319525333</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.3177523224459</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.41700473392558</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.51759314165551</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.6193526334853401</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.7221300436768101</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.82578333301991</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.9301817636313101</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.03520549775563</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2.14074565550409</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2.2467051716431201</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2.35299773451744</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2.4595484630849</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2.5662927508767801</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2.6731767028844602</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2.7801554474293999</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2.8871931385829002</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2.9942612867729599</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3.1013409009364001</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>3.2084221337326402</c:v>
+                  <c:v>3.0198378859530801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1010,124 +1016,121 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.4</c:v>
+                        <c:v>0.8</c:v>
                       </c:pt>
                       <c:pt idx="2">
+                        <c:v>1.6</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2.4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3.2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4.8</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>5.6</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>6.4</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>7.2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>8.8000000000000007</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>9.6</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>10.4</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>11.2</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>12.8</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>13.6</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>14.4</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>15.2</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
                         <c:v>0.8</c:v>
                       </c:pt>
-                      <c:pt idx="3">
-                        <c:v>1.2</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
+                      <c:pt idx="24">
                         <c:v>1.6</c:v>
                       </c:pt>
-                      <c:pt idx="5">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
+                      <c:pt idx="25">
                         <c:v>2.4</c:v>
                       </c:pt>
-                      <c:pt idx="7">
-                        <c:v>2.8</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
+                      <c:pt idx="26">
                         <c:v>3.2</c:v>
                       </c:pt>
-                      <c:pt idx="9">
-                        <c:v>3.6</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
+                      <c:pt idx="27">
                         <c:v>4</c:v>
                       </c:pt>
-                      <c:pt idx="11">
-                        <c:v>4.4000000000000004</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
+                      <c:pt idx="28">
                         <c:v>4.8</c:v>
                       </c:pt>
-                      <c:pt idx="13">
-                        <c:v>5.2</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
+                      <c:pt idx="29">
                         <c:v>5.6</c:v>
                       </c:pt>
-                      <c:pt idx="15">
-                        <c:v>6</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
+                      <c:pt idx="30">
                         <c:v>6.4</c:v>
                       </c:pt>
-                      <c:pt idx="17">
-                        <c:v>6.8</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
+                      <c:pt idx="31">
                         <c:v>7.2</c:v>
                       </c:pt>
-                      <c:pt idx="19">
-                        <c:v>7.6</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
+                      <c:pt idx="32">
                         <c:v>8</c:v>
                       </c:pt>
-                      <c:pt idx="21">
-                        <c:v>8.4</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
+                      <c:pt idx="33">
                         <c:v>8.8000000000000007</c:v>
                       </c:pt>
-                      <c:pt idx="23">
-                        <c:v>9.1999999999999993</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
+                      <c:pt idx="34">
                         <c:v>9.6</c:v>
                       </c:pt>
-                      <c:pt idx="25">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
+                      <c:pt idx="35">
                         <c:v>10.4</c:v>
                       </c:pt>
-                      <c:pt idx="27">
-                        <c:v>10.8</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
+                      <c:pt idx="36">
                         <c:v>11.2</c:v>
                       </c:pt>
-                      <c:pt idx="29">
-                        <c:v>11.6</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
+                      <c:pt idx="37">
                         <c:v>12</c:v>
                       </c:pt>
-                      <c:pt idx="31">
-                        <c:v>12.4</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
+                      <c:pt idx="38">
                         <c:v>12.8</c:v>
                       </c:pt>
-                      <c:pt idx="33">
-                        <c:v>13.2</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
+                      <c:pt idx="39">
                         <c:v>13.6</c:v>
                       </c:pt>
-                      <c:pt idx="35">
-                        <c:v>14</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
+                      <c:pt idx="40">
                         <c:v>14.4</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>14.8</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>15.2</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>15.6</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>16</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1144,129 +1147,6 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="41"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>4.6047180136771348E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>1.8056774328457301E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>3.9818212185330354E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>6.936236264192655E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0.10617736165282055</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>0.149768744688489</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0.19966109888144448</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>0.25539938598522549</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>0.3165495675195345</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>0.38269898732922147</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>0.45345627965519597</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>0.52845103603416099</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>0.60733306527830555</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>0.68977186111440658</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>0.77545624206356889</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>0.86409327564970895</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>0.955408039898485</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>1.0491430603305181</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>1.145057892828734</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>1.2429281940165275</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>1.3425450482417935</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>1.4437142437124488</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>1.5462555055279852</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>1.6500004889319049</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>1.7547932740283649</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>1.860488988430065</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>1.9669545126817101</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>2.0740682366796599</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>2.1817200090652</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>2.2898107888225052</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>2.3982530249499852</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>2.50697020401604</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>2.615895751443555</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>2.7249745489266548</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>2.8341600328399998</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>2.9434147704318949</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>3.052709999296995</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>3.1620245298823448</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>3.2713453708924147</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>3.3806663685807501</c:v>
-                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:yVal>
@@ -1471,7 +1351,1854 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13721675727544322"/>
+          <c:y val="0.25230816322370597"/>
+          <c:w val="0.22442793957460336"/>
+          <c:h val="0.15683317618727979"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:solidFill>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Aeroelastic Verification</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>AoA = 4 deg</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11331438812691047"/>
+          <c:y val="0.22153153968998149"/>
+          <c:w val="0.84464859466827369"/>
+          <c:h val="0.59890206651159172"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ref!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ref</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ref!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-4.12792215182822E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97226133372156498</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5319831520932499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9542834498500699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0191775713012303</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.2222589541873194</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.058374599819301</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.894522419435299</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.294717045226999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.878436365825101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ref!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-1.3206213922409799E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2230882386255101E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29485525930018702</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64569217835701398</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2896323492249999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.24497847895613</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1502370887477702</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.07186622379177</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.8417275927974703</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.6579144046009802</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4E01-409C-A414-B05CAEE2247E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>results!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>results!$A$10:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>results!$H$10:$H$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2236776394171799E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5692982888841598E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18556286268028699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.317261808763734</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.47651221626479501</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65938971311209704</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.86233858551540499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0821662564191199</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3160271285820899</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5614026285259099</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.81608020329011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0781297706473199</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.3458802448156399</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6178995827337599</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.8929778973195699</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.1701184272443101</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.4485329631513602</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.7276335449978699</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.0070227160949603</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.2864752491438303</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-4E01-409C-A414-B05CAEE2247E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1725177584"/>
+        <c:axId val="1725175664"/>
+        <c:extLst/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1725177584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="16"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Span (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1725175664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1725175664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Deflection (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1725177584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.22584771793635589"/>
+          <c:y val="0.23573842742543119"/>
+          <c:w val="0.22442793957460336"/>
+          <c:h val="0.15683317618727979"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:solidFill>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Aeroelastic Verification</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>AoA = 2 deg</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11331438812691047"/>
+          <c:y val="0.22153153968998149"/>
+          <c:w val="0.84464859466827369"/>
+          <c:h val="0.59890206651159172"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>FS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>results!$A$32:$A$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>results!$B$32:$B$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.121112208800688</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23674200743144599</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34682894671435299</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45110521140783399</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.54922983551371196</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.64136879392397095</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.72766093101344098</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.80807479126091597</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.882130293324491</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.94979327386641399</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0111281340443901</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.06619149482134</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.11529279948687</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1587038175075799</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.19661164757681</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2275124140657201</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.2507102953773701</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.26641876091773</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.27610150169517</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.2806102200038401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6A31-4476-A31B-9D1E53A9C1EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Ref</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ref!$D$11:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>9.0503407430189108E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2850844003816</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7872134610488302</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8499375478499802</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.2639306507864996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.7786576720166796</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.3781294392458996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.8403459995743</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.2160262303473</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.337024327234101</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.4569346769617</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.941183449358199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ref!$E$11:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.3595239862023101E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12799904733255299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.378244879079218</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65853332758652094</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82877055688833201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97632825792049205</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1238619645300201</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.23217278828076</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.29822623452415</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3537813210529199</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3836655746241999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4119366031806799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6A31-4476-A31B-9D1E53A9C1EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1725177584"/>
+        <c:axId val="1725175664"/>
+        <c:extLst/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1725177584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="16"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Span (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1725175664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1725175664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Twist (deg)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1725177584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13721675727544322"/>
+          <c:y val="0.25230816322370597"/>
+          <c:w val="0.22442793957460336"/>
+          <c:h val="0.15683317618727979"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:solidFill>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Aeroelastic Verification</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>AoA = 4 deg</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11331438812691047"/>
+          <c:y val="0.22153153968998149"/>
+          <c:w val="0.84464859466827369"/>
+          <c:h val="0.59890206651159172"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>FS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>results!$A$32:$A$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>results!$G$32:$G$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.183826801802213</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.358466596235756</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52288719395111505</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.676423506863436</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.81880108205295399</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95048867561770001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0718734971899999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.18319854354126</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.28436885935884</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3754444533291099</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4565918308490799</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.52812592799955</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.5909761029377101</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.6459282789019101</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.69317336461257</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.73158663482304</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.76026871102969</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.7794003182414599</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.7907950005144899</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.79613841725821</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0E8B-449E-AE07-B6D522EFACC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Ref</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ref!$A$16:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.54854755588633E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1560491462640601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4356553226027202</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3798744792978503</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1370372303449301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.2794064808742398</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.882186483793999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.731390689804099</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.7190504178098</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.8746638648787</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ref!$B$16:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.7460962940605901E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.235436224908529</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61650490577626804</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.30407738047961</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6599910515252101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0320702216997799</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2451471732880002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4195206476789499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5002951937688902</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5460422855145799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0E8B-449E-AE07-B6D522EFACC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1725177584"/>
+        <c:axId val="1725175664"/>
+        <c:extLst/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1725177584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="16"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Span (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1725175664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1725175664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Deflection (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1725177584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.22584771793635589"/>
+          <c:y val="0.23573842742543119"/>
+          <c:w val="0.22442793957460336"/>
+          <c:h val="0.15683317618727979"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -2106,62 +3833,18 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>160019</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>560074</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>179102</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="A graph with a line&#10;&#10;Description automatically generated">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEC7586B-9164-B25A-9945-1D832EDCA8C2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3147060" y="342899"/>
-          <a:ext cx="4114800" cy="2572731"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>472664</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190317</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>118334</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>447356</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>120015</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2180,10 +3863,257 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>441714</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>42535</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>125731</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{972A8E5D-4DC7-4A07-80AF-D8B594032BC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>197302</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>118382</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>437659</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{553D4C92-D8B1-BE47-8E78-A867F32E591A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>442231</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>118382</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>43052</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D4F3AA9-8A35-F145-A578-4C0146C7B3A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>187643</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>402497</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>68014</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="A graph of a line graph&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAC57E5B-5F40-FCA2-11E0-212C7311B7D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8112443" y="0"/>
+          <a:ext cx="3872454" cy="2925514"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>199213</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>11466</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="A graph with a line&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05BF3A47-5F6D-4984-AD64-89055CD77875}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3990975" y="0"/>
+          <a:ext cx="4133038" cy="2678466"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>561976</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>576410</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>141513</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="A graph of a line&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1416F40-A55A-42B9-A3E6-43AB29444442}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4219576" y="2676525"/>
+          <a:ext cx="3672034" cy="2608488"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2508,17 +4438,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4D8AB3-9DFB-486C-871D-9DF392FF6BA1}">
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>13</v>
       </c>
@@ -2532,10 +4462,10 @@
         <v>18</v>
       </c>
       <c r="R1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2570,23 +4500,23 @@
         <v>19</v>
       </c>
       <c r="N2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S2">
         <f>B2</f>
         <v>10</v>
       </c>
       <c r="T2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2632,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S3" s="4">
         <f>S2*B3^3/(3*B4*B5)</f>
@@ -2642,7 +4572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2691,7 +4621,7 @@
         <v>2.1690845588235226E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2740,7 +4670,7 @@
         <v>1.2724010512472659E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2790,7 +4720,7 @@
         <v>3.932484839211263E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -2840,7 +4770,7 @@
         <v>8.7659202595929034E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2890,7 +4820,7 @@
         <v>0.16211966009933301</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D9">
         <v>6</v>
       </c>
@@ -2933,7 +4863,7 @@
         <v>0.26560687484436485</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D10">
         <v>7</v>
       </c>
@@ -2976,7 +4906,7 @@
         <v>0.39878798248872172</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D11">
         <v>8</v>
       </c>
@@ -3019,7 +4949,7 @@
         <v>0.5585723085057821</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D12">
         <v>9</v>
       </c>
@@ -3062,7 +4992,7 @@
         <v>0.73115041218583077</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D13">
         <v>10</v>
       </c>
@@ -3105,7 +5035,7 @@
         <v>0.91267587774123027</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D14">
         <v>11</v>
       </c>
@@ -3148,7 +5078,7 @@
         <v>1.10627443523805</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D15">
         <v>12</v>
       </c>
@@ -3191,7 +5121,7 @@
         <v>1.3189597582003429</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D16">
         <v>13</v>
       </c>
@@ -3234,7 +5164,7 @@
         <v>1.5692395976198186</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D17">
         <v>14</v>
       </c>
@@ -3277,7 +5207,7 @@
         <v>1.8491079831447976</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D18">
         <v>15</v>
       </c>
@@ -3320,7 +5250,7 @@
         <v>2.0718498839922552</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D19">
         <v>16</v>
       </c>
@@ -3363,7 +5293,7 @@
         <v>2.1512197780600517</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>0</v>
       </c>
@@ -3371,7 +5301,7 @@
         <v>11.311470588235199</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>0.8</v>
       </c>
@@ -3379,7 +5309,7 @@
         <v>11.1938235294117</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>1.6</v>
       </c>
@@ -3387,7 +5317,7 @@
         <v>11.0761764705882</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>2.4</v>
       </c>
@@ -3395,7 +5325,7 @@
         <v>10.938053993250801</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>3.2</v>
       </c>
@@ -3403,7 +5333,7 @@
         <v>10.7940719910011</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>4</v>
       </c>
@@ -3411,7 +5341,7 @@
         <v>10.5650928531232</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>4.8</v>
       </c>
@@ -3419,7 +5349,7 @@
         <v>10.2679628587507</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>5.6</v>
       </c>
@@ -3427,7 +5357,7 @@
         <v>9.8994083239595003</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>6.4</v>
       </c>
@@ -3435,7 +5365,7 @@
         <v>9.3882722159730001</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>7.2</v>
       </c>
@@ -3443,7 +5373,7 @@
         <v>8.8443993250843604</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>8</v>
       </c>
@@ -3451,7 +5381,7 @@
         <v>8.0389999999999997</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>8.8000000000000007</v>
       </c>
@@ -3459,7 +5389,7 @@
         <v>7.2336006749156301</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>9.6</v>
       </c>
@@ -3467,7 +5397,7 @@
         <v>6.5966777091521598</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>10.4</v>
       </c>
@@ -3475,7 +5405,7 @@
         <v>5.9808439079169</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>11.2</v>
       </c>
@@ -3483,7 +5413,7 @@
         <v>5.5852542372881304</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>12</v>
       </c>
@@ -3491,7 +5421,7 @@
         <v>5.3018644067796599</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>12.8</v>
       </c>
@@ -3499,7 +5429,7 @@
         <v>5.2677528089887602</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>13.6</v>
       </c>
@@ -3507,7 +5437,7 @@
         <v>5.5383146067415696</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>14.4</v>
       </c>
@@ -3515,7 +5445,7 @@
         <v>5.1634576271186399</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>15.2</v>
       </c>
@@ -3523,7 +5453,7 @@
         <v>2.56549152542373</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>16</v>
       </c>
@@ -3539,79 +5469,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1343C6E-59B9-454D-A9AB-BF1DE6A4BCBB}">
-  <dimension ref="A1:Y50"/>
+  <dimension ref="A8:X52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD21" sqref="AD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="19" max="19" width="9.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>1.1200000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>16</v>
-      </c>
-      <c r="B7">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
       <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="O9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -3624,1795 +5518,1105 @@
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="O10">
-        <f>(S10+W10)/2</f>
+      <c r="F10">
         <v>0</v>
       </c>
-      <c r="P10">
-        <f t="shared" ref="P10:Q25" si="0">(T10+X10)/2</f>
+      <c r="G10">
         <v>0</v>
       </c>
-      <c r="Q10">
-        <f t="shared" si="0"/>
+      <c r="H10">
         <v>0</v>
       </c>
-      <c r="S10">
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.8</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1.4639522007504999E-6</v>
+      </c>
+      <c r="C11" s="1">
+        <v>-1.44875917128528E-4</v>
+      </c>
+      <c r="D11">
+        <v>1.52229081652894E-2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-2.5374906972101602E-6</v>
+      </c>
+      <c r="G11">
+        <v>-3.0919726465772302E-4</v>
+      </c>
+      <c r="H11">
+        <v>2.2236776394171799E-2</v>
+      </c>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1.6</v>
+      </c>
+      <c r="B12" s="1">
+        <v>5.68669899012257E-6</v>
+      </c>
+      <c r="C12" s="1">
+        <v>-1.3341531520476499E-3</v>
+      </c>
+      <c r="D12">
+        <v>5.8794619629050901E-2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-9.7730276188245208E-6</v>
+      </c>
+      <c r="G12">
+        <v>-2.83594111590645E-3</v>
+      </c>
+      <c r="H12">
+        <v>8.5692982888841598E-2</v>
+      </c>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="W12" s="1"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2.4</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1.24167781141997E-5</v>
+      </c>
+      <c r="C13">
+        <v>-4.3116031161152197E-3</v>
+      </c>
+      <c r="D13">
+        <v>0.12761794469860199</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-2.11536592799561E-5</v>
+      </c>
+      <c r="G13">
+        <v>-9.1320753200743107E-3</v>
+      </c>
+      <c r="H13">
+        <v>0.18556286268028699</v>
+      </c>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="W13" s="1"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3.2</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2.1413408952177E-5</v>
+      </c>
+      <c r="C14">
+        <v>-9.5516454563384593E-3</v>
+      </c>
+      <c r="D14">
+        <v>0.218719975132522</v>
+      </c>
+      <c r="F14" s="1">
+        <v>-3.6148235485980203E-5</v>
+      </c>
+      <c r="G14">
+        <v>-2.01637165570673E-2</v>
+      </c>
+      <c r="H14">
+        <v>0.317261808763734</v>
+      </c>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="W14" s="1"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3.2448545118006803E-5</v>
+      </c>
+      <c r="C15">
+        <v>-1.7309141601740199E-2</v>
+      </c>
+      <c r="D15">
+        <v>0.32929469495258401</v>
+      </c>
+      <c r="F15" s="1">
+        <v>-5.4259638261521797E-5</v>
+      </c>
+      <c r="G15">
+        <v>-3.6429384425780503E-2</v>
+      </c>
+      <c r="H15">
+        <v>0.47651221626479501</v>
+      </c>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="W15" s="1"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>4.8</v>
+      </c>
+      <c r="B16" s="1">
+        <v>4.5308132536726901E-5</v>
+      </c>
+      <c r="C16">
+        <v>-2.7665326498208399E-2</v>
+      </c>
+      <c r="D16">
+        <v>0.45672974013745099</v>
+      </c>
+      <c r="F16" s="1">
+        <v>-7.5031644483679796E-5</v>
+      </c>
+      <c r="G16">
+        <v>-5.80657812433516E-2</v>
+      </c>
+      <c r="H16">
+        <v>0.65938971311209704</v>
+      </c>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="W16" s="1"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>5.6</v>
+      </c>
+      <c r="B17" s="1">
+        <v>5.9789468160249797E-5</v>
+      </c>
+      <c r="C17">
+        <v>-4.05686975006984E-2</v>
+      </c>
+      <c r="D17">
+        <v>0.59861927812176696</v>
+      </c>
+      <c r="F17" s="1">
+        <v>-9.8054199126828098E-5</v>
+      </c>
+      <c r="G17">
+        <v>-8.4939105353966093E-2</v>
+      </c>
+      <c r="H17">
+        <v>0.86233858551540499</v>
+      </c>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="W17" s="1"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>6.4</v>
+      </c>
+      <c r="B18" s="1">
+        <v>7.5699323157593995E-5</v>
+      </c>
+      <c r="C18">
+        <v>-5.5870332459149699E-2</v>
+      </c>
+      <c r="D18">
+        <v>0.75276652122152998</v>
+      </c>
+      <c r="F18">
+        <v>-1.22965171149985E-4</v>
+      </c>
+      <c r="G18">
+        <v>-0.116721569905346</v>
+      </c>
+      <c r="H18">
+        <v>1.0821662564191199</v>
+      </c>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="W18" s="1"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>7.2</v>
+      </c>
+      <c r="B19" s="1">
+        <v>9.2857815735641005E-5</v>
+      </c>
+      <c r="C19">
+        <v>-7.3353833700738197E-2</v>
+      </c>
+      <c r="D19">
+        <v>0.91718006723999701</v>
+      </c>
+      <c r="F19">
+        <v>-1.49444961043574E-4</v>
+      </c>
+      <c r="G19">
+        <v>-0.15295474213945501</v>
+      </c>
+      <c r="H19">
+        <v>1.3160271285820899</v>
+      </c>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="W19" s="1"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>8</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1.11100080246126E-4</v>
+      </c>
+      <c r="C20">
+        <v>-9.2760818282588503E-2</v>
+      </c>
+      <c r="D20">
+        <v>1.09006893300272</v>
+      </c>
+      <c r="F20">
+        <v>-1.77209073260071E-4</v>
+      </c>
+      <c r="G20">
+        <v>-0.193101819160166</v>
+      </c>
+      <c r="H20">
+        <v>1.5614026285259099</v>
+      </c>
+      <c r="S20" s="6"/>
+      <c r="T20" s="1"/>
+      <c r="W20" s="1"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1.3027520059987101E-4</v>
+      </c>
+      <c r="C21">
+        <v>-0.11381246759107801</v>
+      </c>
+      <c r="D21">
+        <v>1.2698376201896</v>
+      </c>
+      <c r="F21">
+        <v>-2.06003226301336E-4</v>
+      </c>
+      <c r="G21">
+        <v>-0.23659022952067901</v>
+      </c>
+      <c r="H21">
+        <v>1.81608020329011</v>
+      </c>
+      <c r="S21" s="6"/>
+      <c r="T21" s="1"/>
+      <c r="W21" s="1"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>9.6</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1.50242485193561E-4</v>
+      </c>
+      <c r="C22">
+        <v>-0.13622650802705399</v>
+      </c>
+      <c r="D22">
+        <v>1.4550778418480199</v>
+      </c>
+      <c r="F22">
+        <v>-2.35603643556977E-4</v>
+      </c>
+      <c r="G22">
+        <v>-0.28284461291079299</v>
+      </c>
+      <c r="H22">
+        <v>2.0781297706473199</v>
+      </c>
+      <c r="S22" s="6"/>
+      <c r="T22" s="1"/>
+      <c r="W22" s="1"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>10.4</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1.7086525751170201E-4</v>
+      </c>
+      <c r="C23">
+        <v>-0.15972965215795201</v>
+      </c>
+      <c r="D23">
+        <v>1.64455671459667</v>
+      </c>
+      <c r="F23">
+        <v>-2.6582144994378602E-4</v>
+      </c>
+      <c r="G23">
+        <v>-0.33131153382106998</v>
+      </c>
+      <c r="H23">
+        <v>2.3458802448156399</v>
+      </c>
+      <c r="S23" s="6"/>
+      <c r="T23" s="1"/>
+      <c r="W23" s="1"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>11.2</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1.9200677757794999E-4</v>
+      </c>
+      <c r="C24">
+        <v>-0.18406735956248499</v>
+      </c>
+      <c r="D24">
+        <v>1.8372076894893301</v>
+      </c>
+      <c r="F24">
+        <v>-2.96506739701261E-4</v>
+      </c>
+      <c r="G24">
+        <v>-0.38147812251979801</v>
+      </c>
+      <c r="H24">
+        <v>2.6178995827337599</v>
+      </c>
+      <c r="S24" s="6"/>
+      <c r="T24" s="1"/>
+      <c r="W24" s="1"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>12</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2.1353239004604399E-4</v>
+      </c>
+      <c r="C25">
+        <v>-0.209011146793214</v>
+      </c>
+      <c r="D25">
+        <v>2.03212310302664</v>
+      </c>
+      <c r="F25">
+        <v>-3.2754644150998402E-4</v>
+      </c>
+      <c r="G25">
+        <v>-0.43288557595864702</v>
+      </c>
+      <c r="H25">
+        <v>2.8929778973195699</v>
+      </c>
+      <c r="S25" s="6"/>
+      <c r="T25" s="1"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>12.8</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2.3532258441485399E-4</v>
+      </c>
+      <c r="C26">
+        <v>-0.234364923587881</v>
+      </c>
+      <c r="D26">
+        <v>2.2285522640490898</v>
+      </c>
+      <c r="F26">
+        <v>-3.5884894979039698E-4</v>
+      </c>
+      <c r="G26">
+        <v>-0.48514038958924</v>
+      </c>
+      <c r="H26">
+        <v>3.1701184272443101</v>
+      </c>
+      <c r="S26" s="6"/>
+      <c r="T26" s="1"/>
+      <c r="X26" s="1"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>13.6</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2.5728324706472601E-4</v>
+      </c>
+      <c r="C27">
+        <v>-0.259970120529261</v>
+      </c>
+      <c r="D27">
+        <v>2.4259027053465299</v>
+      </c>
+      <c r="F27">
+        <v>-3.9033070006991099E-4</v>
+      </c>
+      <c r="G27">
+        <v>-0.53792294194759405</v>
+      </c>
+      <c r="H27">
+        <v>3.4485329631513602</v>
+      </c>
+      <c r="S27" s="6"/>
+      <c r="T27" s="1"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>14.4</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2.7934568154652198E-4</v>
+      </c>
+      <c r="C28">
+        <v>-0.28570809298996402</v>
+      </c>
+      <c r="D28">
+        <v>2.62373754254914</v>
+      </c>
+      <c r="F28">
+        <v>-4.2191566096803099E-4</v>
+      </c>
+      <c r="G28">
+        <v>-0.59099094150593701</v>
+      </c>
+      <c r="H28">
+        <v>3.7276335449978699</v>
+      </c>
+      <c r="S28" s="6"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>15.2</v>
+      </c>
+      <c r="B29" s="1">
+        <v>3.01457663244587E-4</v>
+      </c>
+      <c r="C29">
+        <v>-0.31149971921362402</v>
+      </c>
+      <c r="D29">
+        <v>2.8217677312916498</v>
+      </c>
+      <c r="F29">
+        <v>-4.5354624216926E-4</v>
+      </c>
+      <c r="G29">
+        <v>-0.64417920627303904</v>
+      </c>
+      <c r="H29">
+        <v>4.0070227160949603</v>
+      </c>
+      <c r="S29" s="6"/>
+      <c r="T29" s="1"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>16</v>
+      </c>
+      <c r="B30" s="1">
+        <v>3.2358365791022002E-4</v>
+      </c>
+      <c r="C30">
+        <v>-0.33730232924014603</v>
+      </c>
+      <c r="D30">
+        <v>3.0198378859530801</v>
+      </c>
+      <c r="F30">
+        <v>-4.8519013347831898E-4</v>
+      </c>
+      <c r="G30">
+        <v>-0.69739391414422303</v>
+      </c>
+      <c r="H30">
+        <v>4.2864752491438303</v>
+      </c>
+      <c r="S30" s="6"/>
+      <c r="T30" s="1"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="1"/>
+      <c r="X31" s="1"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>0</v>
       </c>
-      <c r="T10" s="1">
+      <c r="B32">
         <v>0</v>
       </c>
-      <c r="U10" s="1">
+      <c r="G32">
         <v>0</v>
       </c>
-      <c r="W10">
+      <c r="S32" s="6"/>
+      <c r="T32" s="1"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0.8</v>
+      </c>
+      <c r="B33">
+        <v>0.121112208800688</v>
+      </c>
+      <c r="G33">
+        <v>0.183826801802213</v>
+      </c>
+      <c r="S33" s="6"/>
+      <c r="T33" s="1"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1.6</v>
+      </c>
+      <c r="B34">
+        <v>0.23674200743144599</v>
+      </c>
+      <c r="G34">
+        <v>0.358466596235756</v>
+      </c>
+      <c r="S34" s="6"/>
+      <c r="T34" s="1"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2.4</v>
+      </c>
+      <c r="B35">
+        <v>0.34682894671435299</v>
+      </c>
+      <c r="G35">
+        <v>0.52288719395111505</v>
+      </c>
+      <c r="S35" s="6"/>
+      <c r="T35" s="1"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>3.2</v>
+      </c>
+      <c r="B36">
+        <v>0.45110521140783399</v>
+      </c>
+      <c r="G36">
+        <v>0.676423506863436</v>
+      </c>
+      <c r="S36" s="6"/>
+      <c r="T36" s="1"/>
+      <c r="X36" s="1"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37">
+        <v>0.54922983551371196</v>
+      </c>
+      <c r="G37">
+        <v>0.81880108205295399</v>
+      </c>
+      <c r="S37" s="6"/>
+      <c r="T37" s="1"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>4.8</v>
+      </c>
+      <c r="B38">
+        <v>0.64136879392397095</v>
+      </c>
+      <c r="G38">
+        <v>0.95048867561770001</v>
+      </c>
+      <c r="S38" s="6"/>
+      <c r="T38" s="1"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>5.6</v>
+      </c>
+      <c r="B39">
+        <v>0.72766093101344098</v>
+      </c>
+      <c r="G39">
+        <v>1.0718734971899999</v>
+      </c>
+      <c r="S39" s="6"/>
+      <c r="T39" s="1"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>6.4</v>
+      </c>
+      <c r="B40">
+        <v>0.80807479126091597</v>
+      </c>
+      <c r="G40">
+        <v>1.18319854354126</v>
+      </c>
+      <c r="S40" s="6"/>
+      <c r="T40" s="1"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>7.2</v>
+      </c>
+      <c r="B41">
+        <v>0.882130293324491</v>
+      </c>
+      <c r="G41">
+        <v>1.28436885935884</v>
+      </c>
+      <c r="T41" s="1"/>
+      <c r="X41" s="1"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>8</v>
+      </c>
+      <c r="B42">
+        <v>0.94979327386641399</v>
+      </c>
+      <c r="G42">
+        <v>1.3754444533291099</v>
+      </c>
+      <c r="T42" s="1"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="B43">
+        <v>1.0111281340443901</v>
+      </c>
+      <c r="G43">
+        <v>1.4565918308490799</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>9.6</v>
+      </c>
+      <c r="B44">
+        <v>1.06619149482134</v>
+      </c>
+      <c r="G44">
+        <v>1.52812592799955</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>10.4</v>
+      </c>
+      <c r="B45">
+        <v>1.11529279948687</v>
+      </c>
+      <c r="G45">
+        <v>1.5909761029377101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>11.2</v>
+      </c>
+      <c r="B46">
+        <v>1.1587038175075799</v>
+      </c>
+      <c r="G46">
+        <v>1.6459282789019101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>12</v>
+      </c>
+      <c r="B47">
+        <v>1.19661164757681</v>
+      </c>
+      <c r="G47">
+        <v>1.69317336461257</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>12.8</v>
+      </c>
+      <c r="B48">
+        <v>1.2275124140657201</v>
+      </c>
+      <c r="G48">
+        <v>1.73158663482304</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>13.6</v>
+      </c>
+      <c r="B49">
+        <v>1.2507102953773701</v>
+      </c>
+      <c r="G49">
+        <v>1.76026871102969</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>14.4</v>
+      </c>
+      <c r="B50">
+        <v>1.26641876091773</v>
+      </c>
+      <c r="G50">
+        <v>1.7794003182414599</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>15.2</v>
+      </c>
+      <c r="B51">
+        <v>1.27610150169517</v>
+      </c>
+      <c r="G51">
+        <v>1.7907950005144899</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>16</v>
+      </c>
+      <c r="B52">
+        <v>1.2806102200038401</v>
+      </c>
+      <c r="G52">
+        <v>1.79613841725821</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9108EE99-9432-4D7C-8D25-44082359D017}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-4.12792215182822E-2</v>
+      </c>
+      <c r="B3">
+        <v>-1.3206213922409799E-2</v>
+      </c>
+      <c r="D3">
         <v>0</v>
       </c>
-      <c r="X10">
+      <c r="E3">
         <v>0</v>
       </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.97226133372156498</v>
+      </c>
+      <c r="B4">
+        <v>2.2230882386255101E-2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2.5319831520932499</v>
+      </c>
+      <c r="B5">
+        <v>0.29485525930018702</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3.9542834498500699</v>
+      </c>
+      <c r="B6">
+        <v>0.64569217835701398</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6.0191775713012303</v>
+      </c>
+      <c r="B7">
+        <v>1.2896323492249999</v>
+      </c>
+      <c r="D7">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8.2222589541873194</v>
+      </c>
+      <c r="B8">
+        <v>2.24497847895613</v>
+      </c>
+      <c r="D8">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>10.058374599819301</v>
+      </c>
+      <c r="B9">
+        <v>3.1502370887477702</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>11.894522419435299</v>
+      </c>
+      <c r="B10">
+        <v>4.07186622379177</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.4</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1.6786113598011099E-7</v>
-      </c>
-      <c r="C11" s="1">
-        <v>-2.5581896780590899E-5</v>
+        <v>13.294717045226999</v>
+      </c>
+      <c r="B11">
+        <v>4.8417275927974703</v>
       </c>
       <c r="D11">
-        <v>4.5236758463675902E-3</v>
-      </c>
-      <c r="O11">
-        <f t="shared" ref="O11:O50" si="1">(S11+W11)/2</f>
-        <v>2.0327599053900514E-8</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="0"/>
-        <v>-2.8740596014903402E-5</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="0"/>
-        <v>4.6047180136771348E-3</v>
-      </c>
-      <c r="S11" s="1">
-        <v>-6.0985664428189398E-7</v>
-      </c>
-      <c r="T11" s="1">
-        <v>-1.33524313207789E-5</v>
-      </c>
-      <c r="U11">
-        <v>3.2681799009082199E-3</v>
-      </c>
-      <c r="W11" s="1">
-        <v>6.5051184238969501E-7</v>
-      </c>
-      <c r="X11" s="1">
-        <v>-4.4128760709027903E-5</v>
-      </c>
-      <c r="Y11">
-        <v>5.9412561264460496E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+        <v>9.0503407430189108E-3</v>
+      </c>
+      <c r="E11">
+        <v>1.3595239862023101E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.8</v>
-      </c>
-      <c r="B12" s="1">
-        <v>6.4619379236496001E-7</v>
-      </c>
-      <c r="C12" s="1">
-        <v>-2.4394537682281801E-4</v>
+        <v>14.878436365825101</v>
+      </c>
+      <c r="B12">
+        <v>5.6579144046009802</v>
       </c>
       <c r="D12">
-        <v>1.77355745189549E-2</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="1"/>
-        <v>6.3751668840849965E-8</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="0"/>
-        <v>-2.74511000868865E-4</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="0"/>
-        <v>1.8056774328457301E-2</v>
-      </c>
-      <c r="S12" s="1">
-        <v>-2.4216479602310102E-6</v>
-      </c>
-      <c r="T12" s="1">
-        <v>-1.2672997177032199E-4</v>
-      </c>
-      <c r="U12">
-        <v>1.2788342532191301E-2</v>
-      </c>
-      <c r="W12" s="1">
-        <v>2.5491512979127101E-6</v>
-      </c>
-      <c r="X12">
-        <v>-4.2229202996740801E-4</v>
-      </c>
-      <c r="Y12">
-        <v>2.3325206124723299E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>1.2</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1.39960019707781E-6</v>
-      </c>
-      <c r="C13">
-        <v>-8.1587886025485902E-4</v>
-      </c>
+        <v>1.2850844003816</v>
+      </c>
+      <c r="E12">
+        <v>0.12799904733255299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D13">
-        <v>3.9104023380713698E-2</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="1"/>
-        <v>1.0670609639745524E-7</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="0"/>
-        <v>-9.1950846014701596E-4</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="0"/>
-        <v>3.9818212185330354E-2</v>
-      </c>
-      <c r="S13" s="1">
-        <v>-5.4044029575016298E-6</v>
-      </c>
-      <c r="T13" s="1">
-        <v>-4.2195922650706198E-4</v>
-      </c>
-      <c r="U13">
-        <v>2.8141380076761299E-2</v>
-      </c>
-      <c r="W13" s="1">
-        <v>5.6178151502965402E-6</v>
-      </c>
-      <c r="X13">
-        <v>-1.4170576937869699E-3</v>
-      </c>
-      <c r="Y13">
-        <v>5.1495044293899402E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>1.6</v>
-      </c>
-      <c r="B14" s="1">
-        <v>2.3960396576962202E-6</v>
-      </c>
-      <c r="C14">
-        <v>-1.87157106773627E-3</v>
-      </c>
+        <v>2.7872134610488302</v>
+      </c>
+      <c r="E13">
+        <v>0.378244879079218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D14">
-        <v>6.8110321899066198E-2</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="1"/>
-        <v>1.292548195476054E-7</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="0"/>
-        <v>-2.1124597867637446E-3</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="0"/>
-        <v>6.936236264192655E-2</v>
-      </c>
-      <c r="S14" s="1">
-        <v>-9.5221223595943293E-6</v>
-      </c>
-      <c r="T14" s="1">
-        <v>-9.6369645541199902E-4</v>
-      </c>
-      <c r="U14">
-        <v>4.8921301154562197E-2</v>
-      </c>
-      <c r="W14" s="1">
-        <v>9.7806319986895401E-6</v>
-      </c>
-      <c r="X14">
-        <v>-3.2612231181154902E-3</v>
-      </c>
-      <c r="Y14">
-        <v>8.9803424129290904E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15" s="1">
-        <v>3.60680710286264E-6</v>
-      </c>
-      <c r="C15">
-        <v>-3.5139575550451299E-3</v>
+        <v>4.8499375478499802</v>
+      </c>
+      <c r="E14">
+        <v>0.65853332758652094</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="D15">
-        <v>0.104251644956845</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="1"/>
-        <v>1.149250914062997E-7</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="0"/>
-        <v>-3.9721231949506851E-3</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="0"/>
-        <v>0.10617736165282055</v>
-      </c>
-      <c r="S15" s="1">
-        <v>-1.4734647006704801E-5</v>
-      </c>
-      <c r="T15" s="1">
-        <v>-1.8015694100992901E-3</v>
-      </c>
-      <c r="U15">
-        <v>7.4737643945073096E-2</v>
-      </c>
-      <c r="W15" s="1">
-        <v>1.49644971895174E-5</v>
-      </c>
-      <c r="X15">
-        <v>-6.1426769798020803E-3</v>
-      </c>
-      <c r="Y15">
-        <v>0.137617079360568</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+        <v>6.2639306507864996</v>
+      </c>
+      <c r="E15">
+        <v>0.82877055688833201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>2.4</v>
-      </c>
-      <c r="B16" s="1">
-        <v>5.0063916800166403E-6</v>
-      </c>
-      <c r="C16">
-        <v>-5.8218646166727202E-3</v>
+        <v>1.54854755588633E-2</v>
+      </c>
+      <c r="B16">
+        <v>2.7460962940605901E-2</v>
       </c>
       <c r="D16">
-        <v>0.147042994298935</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="1"/>
-        <v>5.0431301965799159E-8</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="0"/>
-        <v>-6.5906124863485144E-3</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="0"/>
-        <v>0.149768744688489</v>
-      </c>
-      <c r="S16" s="1">
-        <v>-2.0998552604584401E-5</v>
-      </c>
-      <c r="T16" s="1">
-        <v>-2.9721780647727299E-3</v>
-      </c>
-      <c r="U16">
-        <v>0.105217042433389</v>
-      </c>
-      <c r="W16" s="1">
-        <v>2.1099415208515999E-5</v>
-      </c>
-      <c r="X16">
-        <v>-1.0209046907924299E-2</v>
-      </c>
-      <c r="Y16">
-        <v>0.19432044694358899</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+        <v>7.7786576720166796</v>
+      </c>
+      <c r="E16">
+        <v>0.97632825792049205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>2.8</v>
-      </c>
-      <c r="B17" s="1">
-        <v>6.5722839269940102E-6</v>
-      </c>
-      <c r="C17">
-        <v>-8.8529356987674893E-3</v>
+        <v>1.1560491462640601</v>
+      </c>
+      <c r="B17">
+        <v>0.235436224908529</v>
       </c>
       <c r="D17">
-        <v>0.19601854470868299</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="1"/>
-        <v>-7.4659945083901334E-8</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="0"/>
-        <v>-1.0036485147422121E-2</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="0"/>
-        <v>0.19966109888144448</v>
-      </c>
-      <c r="S17" s="1">
-        <v>-2.8267982580501401E-5</v>
-      </c>
-      <c r="T17" s="1">
-        <v>-4.5009302169340404E-3</v>
-      </c>
-      <c r="U17">
-        <v>0.14000415151488499</v>
-      </c>
-      <c r="W17" s="1">
-        <v>2.8118662690333599E-5</v>
-      </c>
-      <c r="X17">
-        <v>-1.55720400779102E-2</v>
-      </c>
-      <c r="Y17">
-        <v>0.25931804624800397</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+        <v>9.3781294392458996</v>
+      </c>
+      <c r="E17">
+        <v>1.1238619645300201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>3.2</v>
-      </c>
-      <c r="B18" s="1">
-        <v>8.2847611124111306E-6</v>
-      </c>
-      <c r="C18">
-        <v>-1.2646325180495599E-2</v>
+        <v>2.4356553226027202</v>
+      </c>
+      <c r="B18">
+        <v>0.61650490577626804</v>
       </c>
       <c r="D18">
-        <v>0.25073243832994502</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="1"/>
-        <v>-2.6827108534514864E-7</v>
-      </c>
-      <c r="P18">
-        <f t="shared" si="0"/>
-        <v>-1.4357642473011446E-2</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" si="0"/>
-        <v>0.25539938598522549</v>
-      </c>
-      <c r="S18" s="1">
-        <v>-3.6495427846586598E-5</v>
-      </c>
-      <c r="T18" s="1">
-        <v>-6.4037092812277898E-3</v>
-      </c>
-      <c r="U18">
-        <v>0.178762143618832</v>
-      </c>
-      <c r="W18" s="1">
-        <v>3.5958885675896301E-5</v>
-      </c>
-      <c r="X18">
-        <v>-2.2311575664795101E-2</v>
-      </c>
-      <c r="Y18">
-        <v>0.33203662835161901</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+        <v>10.8403459995743</v>
+      </c>
+      <c r="E18">
+        <v>1.23217278828076</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>3.6</v>
-      </c>
-      <c r="B19" s="1">
-        <v>1.01266692611625E-5</v>
-      </c>
-      <c r="C19">
-        <v>-1.7225186335567799E-2</v>
+        <v>5.3798744792978503</v>
+      </c>
+      <c r="B19">
+        <v>1.30407738047961</v>
       </c>
       <c r="D19">
-        <v>0.31075932947540702</v>
-      </c>
-      <c r="O19">
-        <f t="shared" si="1"/>
-        <v>-5.3622485946185034E-7</v>
-      </c>
-      <c r="P19">
-        <f t="shared" si="0"/>
-        <v>-1.9583969534834395E-2</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" si="0"/>
-        <v>0.3165495675195345</v>
-      </c>
-      <c r="S19" s="1">
-        <v>-4.56324823212061E-5</v>
-      </c>
-      <c r="T19" s="1">
-        <v>-8.6883825109856892E-3</v>
-      </c>
-      <c r="U19">
-        <v>0.22117292953779499</v>
-      </c>
-      <c r="W19" s="1">
-        <v>4.4560032602282399E-5</v>
-      </c>
-      <c r="X19">
-        <v>-3.0479556558683101E-2</v>
-      </c>
-      <c r="Y19">
-        <v>0.41192620550127401</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+        <v>12.2160262303473</v>
+      </c>
+      <c r="E19">
+        <v>1.29822623452415</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1">
-        <v>1.20831789548687E-5</v>
-      </c>
-      <c r="C20">
-        <v>-2.2598924359306698E-2</v>
+        <v>7.1370372303449301</v>
+      </c>
+      <c r="B20">
+        <v>1.6599910515252101</v>
       </c>
       <c r="D20">
-        <v>0.37569447651239302</v>
-      </c>
-      <c r="O20">
-        <f t="shared" si="1"/>
-        <v>-8.8259451922855146E-7</v>
-      </c>
-      <c r="P20">
-        <f t="shared" si="0"/>
-        <v>-2.5729785207534602E-2</v>
-      </c>
-      <c r="Q20">
-        <f t="shared" si="0"/>
-        <v>0.38269898732922147</v>
-      </c>
-      <c r="S20" s="1">
-        <v>-5.5630480474859702E-5</v>
-      </c>
-      <c r="T20" s="1">
-        <v>-1.13561271495698E-2</v>
-      </c>
-      <c r="U20">
-        <v>0.26693690890666</v>
-      </c>
-      <c r="W20" s="1">
-        <v>5.3865291436402599E-5</v>
-      </c>
-      <c r="X20">
-        <v>-4.0103443265499403E-2</v>
-      </c>
-      <c r="Y20">
-        <v>0.49846106575178301</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+        <v>13.337024327234101</v>
+      </c>
+      <c r="E20">
+        <v>1.3537813210529199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="B21" s="1">
-        <v>1.41414806268422E-5</v>
-      </c>
-      <c r="C21">
-        <v>-2.8765235191396399E-2</v>
+        <v>9.2794064808742398</v>
+      </c>
+      <c r="B21">
+        <v>2.0320702216997799</v>
       </c>
       <c r="D21">
-        <v>0.44515358400284799</v>
-      </c>
-      <c r="O21">
-        <f t="shared" si="1"/>
-        <v>-1.3100503523994005E-6</v>
-      </c>
-      <c r="P21">
-        <f t="shared" si="0"/>
-        <v>-3.2796034743036051E-2</v>
-      </c>
-      <c r="Q21">
-        <f t="shared" si="0"/>
-        <v>0.45345627965519597</v>
-      </c>
-      <c r="S21" s="1">
-        <v>-6.6441085298955097E-5</v>
-      </c>
-      <c r="T21" s="1">
-        <v>-1.44026195741395E-2</v>
-      </c>
-      <c r="U21">
-        <v>0.31577268812881198</v>
-      </c>
-      <c r="W21" s="1">
-        <v>6.3820984594156296E-5</v>
-      </c>
-      <c r="X21">
-        <v>-5.1189449911932597E-2</v>
-      </c>
-      <c r="Y21">
-        <v>0.59113987118157996</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+        <v>14.4569346769617</v>
+      </c>
+      <c r="E21">
+        <v>1.3836655746241999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>4.8</v>
-      </c>
-      <c r="B22" s="1">
-        <v>1.6290432790597199E-5</v>
-      </c>
-      <c r="C22">
-        <v>-3.5711956429127799E-2</v>
+        <v>10.882186483793999</v>
+      </c>
+      <c r="B22">
+        <v>2.2451471732880002</v>
       </c>
       <c r="D22">
-        <v>0.51877252632235704</v>
-      </c>
-      <c r="O22">
-        <f t="shared" si="1"/>
-        <v>-1.8200628353091532E-6</v>
-      </c>
-      <c r="P22">
-        <f t="shared" si="0"/>
-        <v>-4.0772301702618551E-2</v>
-      </c>
-      <c r="Q22">
-        <f t="shared" si="0"/>
-        <v>0.52845103603416099</v>
-      </c>
-      <c r="S22" s="1">
-        <v>-7.8016679662738003E-5</v>
-      </c>
-      <c r="T22" s="1">
-        <v>-1.7819007539175102E-2</v>
-      </c>
-      <c r="U22">
-        <v>0.36741607061862103</v>
-      </c>
-      <c r="W22" s="1">
-        <v>7.4376553992119696E-5</v>
-      </c>
-      <c r="X22">
-        <v>-6.3725595866061996E-2</v>
-      </c>
-      <c r="Y22">
-        <v>0.68948600144970096</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+        <v>15.941183449358199</v>
+      </c>
+      <c r="E22">
+        <v>1.4119366031806799</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>5.2</v>
-      </c>
-      <c r="B23" s="1">
-        <v>1.85202747687029E-5</v>
-      </c>
-      <c r="C23">
-        <v>-4.3418671056780302E-2</v>
-      </c>
-      <c r="D23">
-        <v>0.59620662425625204</v>
-      </c>
-      <c r="O23">
-        <f t="shared" si="1"/>
-        <v>-2.4131306922346482E-6</v>
-      </c>
-      <c r="P23">
-        <f t="shared" si="0"/>
-        <v>-4.9638537180708653E-2</v>
-      </c>
-      <c r="Q23">
-        <f t="shared" si="0"/>
-        <v>0.60733306527830555</v>
-      </c>
-      <c r="S23" s="1">
-        <v>-9.0310735696871595E-5</v>
-      </c>
-      <c r="T23" s="1">
-        <v>-2.1592792278724099E-2</v>
-      </c>
-      <c r="U23">
-        <v>0.42161936666266597</v>
-      </c>
-      <c r="W23" s="1">
-        <v>8.5484474312402299E-5</v>
-      </c>
-      <c r="X23">
-        <v>-7.7684282082693207E-2</v>
-      </c>
-      <c r="Y23">
-        <v>0.79304676389394502</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+        <v>12.731390689804099</v>
+      </c>
+      <c r="B23">
+        <v>2.4195206476789499</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>5.6</v>
-      </c>
-      <c r="B24" s="1">
-        <v>2.08227046011933E-5</v>
-      </c>
-      <c r="C24">
-        <v>-5.1858300889359103E-2</v>
-      </c>
-      <c r="D24">
-        <v>0.67713065895300395</v>
-      </c>
-      <c r="O24">
-        <f t="shared" si="1"/>
-        <v>-3.0886667392496006E-6</v>
-      </c>
-      <c r="P24">
-        <f t="shared" si="0"/>
-        <v>-5.93666975204288E-2</v>
-      </c>
-      <c r="Q24">
-        <f t="shared" si="0"/>
-        <v>0.68977186111440658</v>
-      </c>
-      <c r="S24">
-        <v>-1.03277736776175E-4</v>
-      </c>
-      <c r="T24" s="1">
-        <v>-2.5708572108931699E-2</v>
-      </c>
-      <c r="U24">
-        <v>0.478150493296287</v>
-      </c>
-      <c r="W24" s="1">
-        <v>9.7100403297675802E-5</v>
-      </c>
-      <c r="X24">
-        <v>-9.3024822931925905E-2</v>
-      </c>
-      <c r="Y24">
-        <v>0.90139322893252605</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+        <v>14.7190504178098</v>
+      </c>
+      <c r="B24">
+        <v>2.5002951937688902</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>6</v>
-      </c>
-      <c r="B25" s="1">
-        <v>2.3191110658751699E-5</v>
-      </c>
-      <c r="C25">
-        <v>-6.0998280697253902E-2</v>
-      </c>
-      <c r="D25">
-        <v>0.76123750444407001</v>
-      </c>
-      <c r="O25">
-        <f t="shared" si="1"/>
-        <v>-3.8447218381414982E-6</v>
-      </c>
-      <c r="P25">
-        <f t="shared" si="0"/>
-        <v>-6.9922286842404799E-2</v>
-      </c>
-      <c r="Q25">
-        <f t="shared" si="0"/>
-        <v>0.77545624206356889</v>
-      </c>
-      <c r="S25">
-        <v>-1.1687289923264E-4</v>
-      </c>
-      <c r="T25" s="1">
-        <v>-3.0148704814888599E-2</v>
-      </c>
-      <c r="U25">
-        <v>0.53679222532367799</v>
-      </c>
-      <c r="W25">
-        <v>1.09183455556357E-4</v>
-      </c>
-      <c r="X25">
-        <v>-0.109695868869921</v>
-      </c>
-      <c r="Y25">
-        <v>1.0141202588034599</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>6.4</v>
-      </c>
-      <c r="B26" s="1">
-        <v>2.5620781125603099E-5</v>
-      </c>
-      <c r="C26">
-        <v>-7.0801975455516697E-2</v>
-      </c>
-      <c r="D26">
-        <v>0.84823859050929795</v>
-      </c>
-      <c r="O26">
-        <f t="shared" si="1"/>
-        <v>-4.6779186778324924E-6</v>
-      </c>
-      <c r="P26">
-        <f t="shared" ref="P26:P50" si="2">(T26+X26)/2</f>
-        <v>-8.1265537624996886E-2</v>
-      </c>
-      <c r="Q26">
-        <f t="shared" ref="Q26:Q50" si="3">(U26+Y26)/2</f>
-        <v>0.86409327564970895</v>
-      </c>
-      <c r="S26">
-        <v>-1.3105205660933299E-4</v>
-      </c>
-      <c r="T26" s="1">
-        <v>-3.48939271466258E-2</v>
-      </c>
-      <c r="U26">
-        <v>0.59734174103325799</v>
-      </c>
-      <c r="W26">
-        <v>1.21696219253668E-4</v>
-      </c>
-      <c r="X26">
-        <v>-0.12763714810336799</v>
-      </c>
-      <c r="Y26">
-        <v>1.1308448102661599</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>6.8</v>
-      </c>
-      <c r="B27" s="1">
-        <v>2.8108622910360201E-5</v>
-      </c>
-      <c r="C27">
-        <v>-8.1229541031302796E-2</v>
-      </c>
-      <c r="D27">
-        <v>0.93786234206991304</v>
-      </c>
-      <c r="O27">
-        <f t="shared" si="1"/>
-        <v>-5.5834948732384884E-6</v>
-      </c>
-      <c r="P27">
-        <f t="shared" si="2"/>
-        <v>-9.3352755535422494E-2</v>
-      </c>
-      <c r="Q27">
-        <f t="shared" si="3"/>
-        <v>0.955408039898485</v>
-      </c>
-      <c r="S27">
-        <v>-1.4577165378690699E-4</v>
-      </c>
-      <c r="T27" s="1">
-        <v>-3.9923800856191002E-2</v>
-      </c>
-      <c r="U27">
-        <v>0.65960955129811005</v>
-      </c>
-      <c r="W27">
-        <v>1.3460466404043001E-4</v>
-      </c>
-      <c r="X27">
-        <v>-0.146781710214654</v>
-      </c>
-      <c r="Y27">
-        <v>1.25120652849886</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>7.2</v>
-      </c>
-      <c r="B28" s="1">
-        <v>3.0652789396360999E-5</v>
-      </c>
-      <c r="C28">
-        <v>-9.2239165881878998E-2</v>
-      </c>
-      <c r="D28">
-        <v>1.0298548335559301</v>
-      </c>
-      <c r="O28">
-        <f t="shared" si="1"/>
-        <v>-6.5557503938975126E-6</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="2"/>
-        <v>-0.10613735783410311</v>
-      </c>
-      <c r="Q28">
-        <f t="shared" si="3"/>
-        <v>1.0491430603305181</v>
-      </c>
-      <c r="S28">
-        <v>-1.6098919888809501E-4</v>
-      </c>
-      <c r="T28" s="1">
-        <v>-4.5217303133456198E-2</v>
-      </c>
-      <c r="U28">
-        <v>0.72341978066960599</v>
-      </c>
-      <c r="W28">
-        <v>1.4787769810029999E-4</v>
-      </c>
-      <c r="X28">
-        <v>-0.16705741253475001</v>
-      </c>
-      <c r="Y28">
-        <v>1.37486633999143</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>7.6</v>
-      </c>
-      <c r="B29" s="1">
-        <v>3.3252271260000999E-5</v>
-      </c>
-      <c r="C29">
-        <v>-0.10378784008098201</v>
-      </c>
-      <c r="D29">
-        <v>1.12397882651654</v>
-      </c>
-      <c r="O29">
-        <f t="shared" si="1"/>
-        <v>-7.5882933344480089E-6</v>
-      </c>
-      <c r="P29">
-        <f t="shared" si="2"/>
-        <v>-0.11957092366483305</v>
-      </c>
-      <c r="Q29">
-        <f t="shared" si="3"/>
-        <v>1.145057892828734</v>
-      </c>
-      <c r="S29">
-        <v>-1.76663406128005E-4</v>
-      </c>
-      <c r="T29" s="1">
-        <v>-5.0753188855709098E-2</v>
-      </c>
-      <c r="U29">
-        <v>0.78860939103624805</v>
-      </c>
-      <c r="W29">
-        <v>1.6148681945910899E-4</v>
-      </c>
-      <c r="X29">
-        <v>-0.188388658473957</v>
-      </c>
-      <c r="Y29">
-        <v>1.5015063946212199</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>8</v>
-      </c>
-      <c r="B30" s="1">
-        <v>3.5906586921599502E-5</v>
-      </c>
-      <c r="C30">
-        <v>-0.115832098994541</v>
-      </c>
-      <c r="D30">
-        <v>1.22001319525333</v>
-      </c>
-      <c r="O30">
-        <f t="shared" si="1"/>
-        <v>-8.6743609012715061E-6</v>
-      </c>
-      <c r="P30">
-        <f t="shared" si="2"/>
-        <v>-0.1336039422466804</v>
-      </c>
-      <c r="Q30">
-        <f t="shared" si="3"/>
-        <v>1.2429281940165275</v>
-      </c>
-      <c r="S30">
-        <v>-1.92754298839812E-4</v>
-      </c>
-      <c r="T30" s="1">
-        <v>-5.6510343985976798E-2</v>
-      </c>
-      <c r="U30">
-        <v>0.855027725017945</v>
-      </c>
-      <c r="W30">
-        <v>1.7540557703726899E-4</v>
-      </c>
-      <c r="X30">
-        <v>-0.21069754050738401</v>
-      </c>
-      <c r="Y30">
-        <v>1.6308286630151101</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>8.4</v>
-      </c>
-      <c r="B31" s="1">
-        <v>3.8615490675696101E-5</v>
-      </c>
-      <c r="C31">
-        <v>-0.12832865720577499</v>
-      </c>
-      <c r="D31">
-        <v>1.3177523224459</v>
-      </c>
-      <c r="O31">
-        <f t="shared" si="1"/>
-        <v>-9.8070348774970047E-6</v>
-      </c>
-      <c r="P31">
-        <f t="shared" si="2"/>
-        <v>-0.14818656713083606</v>
-      </c>
-      <c r="Q31">
-        <f t="shared" si="3"/>
-        <v>1.3425450482417935</v>
-      </c>
-      <c r="S31">
-        <v>-2.0922316183278101E-4</v>
-      </c>
-      <c r="T31" s="1">
-        <v>-6.2468015435645098E-2</v>
-      </c>
-      <c r="U31">
-        <v>0.92253566115681696</v>
-      </c>
-      <c r="W31">
-        <v>1.89609092077787E-4</v>
-      </c>
-      <c r="X31">
-        <v>-0.23390511882602699</v>
-      </c>
-      <c r="Y31">
-        <v>1.7625544353267699</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="B32" s="1">
-        <v>4.1378643452705E-5</v>
-      </c>
-      <c r="C32">
-        <v>-0.14123474948793799</v>
-      </c>
-      <c r="D32">
-        <v>1.41700473392558</v>
-      </c>
-      <c r="O32">
-        <f t="shared" si="1"/>
-        <v>-1.0979599894356498E-5</v>
-      </c>
-      <c r="P32">
-        <f t="shared" si="2"/>
-        <v>-0.16326917102976846</v>
-      </c>
-      <c r="Q32">
-        <f t="shared" si="3"/>
-        <v>1.4437142437124488</v>
-      </c>
-      <c r="S32">
-        <v>-2.26032742141308E-4</v>
-      </c>
-      <c r="T32" s="1">
-        <v>-6.8606136610864898E-2</v>
-      </c>
-      <c r="U32">
-        <v>0.99100561685266797</v>
-      </c>
-      <c r="W32">
-        <v>2.04073542352595E-4</v>
-      </c>
-      <c r="X32">
-        <v>-0.25793220544867201</v>
-      </c>
-      <c r="Y32">
-        <v>1.8964228705722299</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="B33" s="1">
-        <v>4.41952934501511E-5</v>
-      </c>
-      <c r="C33">
-        <v>-0.15450873109353599</v>
-      </c>
-      <c r="D33">
-        <v>1.51759314165551</v>
-      </c>
-      <c r="O33">
-        <f t="shared" si="1"/>
-        <v>-1.2185693539054006E-5</v>
-      </c>
-      <c r="P33">
-        <f t="shared" si="2"/>
-        <v>-0.17880297386138549</v>
-      </c>
-      <c r="Q33">
-        <f t="shared" si="3"/>
-        <v>1.5462555055279852</v>
-      </c>
-      <c r="S33">
-        <v>-2.4314746143461801E-4</v>
-      </c>
-      <c r="T33" s="1">
-        <v>-7.4905264504926003E-2</v>
-      </c>
-      <c r="U33">
-        <v>1.06031963310355</v>
-      </c>
-      <c r="W33">
-        <v>2.1877607435651E-4</v>
-      </c>
-      <c r="X33">
-        <v>-0.28270068321784497</v>
-      </c>
-      <c r="Y33">
-        <v>2.0321913779524201</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>9.6</v>
-      </c>
-      <c r="B34" s="1">
-        <v>4.7063908799603402E-5</v>
-      </c>
-      <c r="C34">
-        <v>-0.168110126922208</v>
-      </c>
-      <c r="D34">
-        <v>1.6193526334853401</v>
-      </c>
-      <c r="O34">
-        <f t="shared" si="1"/>
-        <v>-1.3419901551123999E-5</v>
-      </c>
-      <c r="P34">
-        <f t="shared" si="2"/>
-        <v>-0.19473992977262364</v>
-      </c>
-      <c r="Q34">
-        <f t="shared" si="3"/>
-        <v>1.6500004889319049</v>
-      </c>
-      <c r="S34">
-        <v>-2.6053410519052999E-4</v>
-      </c>
-      <c r="T34" s="1">
-        <v>-8.1346783995681293E-2</v>
-      </c>
-      <c r="U34">
-        <v>1.1303692341123699</v>
-      </c>
-      <c r="W34">
-        <v>2.3369430208828199E-4</v>
-      </c>
-      <c r="X34">
-        <v>-0.30813307554956598</v>
-      </c>
-      <c r="Y34">
-        <v>2.1696317437514399</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>10</v>
-      </c>
-      <c r="B35" s="1">
-        <v>4.9981936808594601E-5</v>
-      </c>
-      <c r="C35">
-        <v>-0.18199988548097801</v>
-      </c>
-      <c r="D35">
-        <v>1.7221300436768101</v>
-      </c>
-      <c r="O35">
-        <f t="shared" si="1"/>
-        <v>-1.4677762757761E-5</v>
-      </c>
-      <c r="P35">
-        <f t="shared" si="2"/>
-        <v>-0.21103362294594757</v>
-      </c>
-      <c r="Q35">
-        <f t="shared" si="3"/>
-        <v>1.7547932740283649</v>
-      </c>
-      <c r="S35">
-        <v>-2.78162098777556E-4</v>
-      </c>
-      <c r="T35" s="1">
-        <v>-8.7912820819946197E-2</v>
-      </c>
-      <c r="U35">
-        <v>1.2010538679837199</v>
-      </c>
-      <c r="W35">
-        <v>2.48806573262034E-4</v>
-      </c>
-      <c r="X35">
-        <v>-0.33415442507194898</v>
-      </c>
-      <c r="Y35">
-        <v>2.3085326800730099</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>10.4</v>
-      </c>
-      <c r="B36" s="1">
-        <v>5.2945721937577301E-5</v>
-      </c>
-      <c r="C36">
-        <v>-0.19614059480735899</v>
-      </c>
-      <c r="D36">
-        <v>1.82578333301991</v>
-      </c>
-      <c r="O36">
-        <f t="shared" si="1"/>
-        <v>-1.5956040446491989E-5</v>
-      </c>
-      <c r="P36">
-        <f t="shared" si="2"/>
-        <v>-0.22763924385171125</v>
-      </c>
-      <c r="Q36">
-        <f t="shared" si="3"/>
-        <v>1.860488988430065</v>
-      </c>
-      <c r="S36">
-        <v>-2.96003741797826E-4</v>
-      </c>
-      <c r="T36" s="1">
-        <v>-9.4586379472814494E-2</v>
-      </c>
-      <c r="U36">
-        <v>1.2722807600933399</v>
-      </c>
-      <c r="W36">
-        <v>2.6409166090484202E-4</v>
-      </c>
-      <c r="X36">
-        <v>-0.36069210823060799</v>
-      </c>
-      <c r="Y36">
-        <v>2.44869721676679</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>10.8</v>
-      </c>
-      <c r="B37" s="1">
-        <v>5.5950560313460097E-5</v>
-      </c>
-      <c r="C37">
-        <v>-0.21049687190359601</v>
-      </c>
-      <c r="D37">
-        <v>1.9301817636313101</v>
-      </c>
-      <c r="O37">
-        <f t="shared" si="1"/>
-        <v>-1.7252770471229504E-5</v>
-      </c>
-      <c r="P37">
-        <f t="shared" si="2"/>
-        <v>-0.24451427856295799</v>
-      </c>
-      <c r="Q37">
-        <f t="shared" si="3"/>
-        <v>1.9669545126817101</v>
-      </c>
-      <c r="S37">
-        <v>-3.14034488848326E-4</v>
-      </c>
-      <c r="T37" s="1">
-        <v>-0.101351522664829</v>
-      </c>
-      <c r="U37">
-        <v>1.34396509364089</v>
-      </c>
-      <c r="W37">
-        <v>2.79528947905867E-4</v>
-      </c>
-      <c r="X37">
-        <v>-0.38767703446108698</v>
-      </c>
-      <c r="Y37">
-        <v>2.5899439317225301</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>11.2</v>
-      </c>
-      <c r="B38" s="1">
-        <v>5.8991121851289697E-5</v>
-      </c>
-      <c r="C38">
-        <v>-0.22503552441168101</v>
-      </c>
-      <c r="D38">
-        <v>2.03520549775563</v>
-      </c>
-      <c r="O38">
-        <f t="shared" si="1"/>
-        <v>-1.8566978533159502E-5</v>
-      </c>
-      <c r="P38">
-        <f t="shared" si="2"/>
-        <v>-0.261618880026527</v>
-      </c>
-      <c r="Q38">
-        <f t="shared" si="3"/>
-        <v>2.0740682366796599</v>
-      </c>
-      <c r="S38">
-        <v>-3.3223260755686399E-4</v>
-      </c>
-      <c r="T38" s="1">
-        <v>-0.10819337011899</v>
-      </c>
-      <c r="U38">
-        <v>1.4160293219672999</v>
-      </c>
-      <c r="W38">
-        <v>2.9509865049054499E-4</v>
-      </c>
-      <c r="X38">
-        <v>-0.41504438993406401</v>
-      </c>
-      <c r="Y38">
-        <v>2.7321071513920199</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>11.6</v>
-      </c>
-      <c r="B39" s="1">
-        <v>6.2062417984156106E-5</v>
-      </c>
-      <c r="C39">
-        <v>-0.23972581710256299</v>
-      </c>
-      <c r="D39">
-        <v>2.14074565550409</v>
-      </c>
-      <c r="O39">
-        <f t="shared" si="1"/>
-        <v>-1.9898008911795501E-5</v>
-      </c>
-      <c r="P39">
-        <f t="shared" si="2"/>
-        <v>-0.27891612615964351</v>
-      </c>
-      <c r="Q39">
-        <f t="shared" si="3"/>
-        <v>2.1817200090652</v>
-      </c>
-      <c r="S39">
-        <v>-3.5057829744466503E-4</v>
-      </c>
-      <c r="T39" s="1">
-        <v>-0.11509826822828</v>
-      </c>
-      <c r="U39">
-        <v>1.4884035358880501</v>
-      </c>
-      <c r="W39">
-        <v>3.1078227962107402E-4</v>
-      </c>
-      <c r="X39">
-        <v>-0.442733984091007</v>
-      </c>
-      <c r="Y39">
-        <v>2.8750364822423502</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>12</v>
-      </c>
-      <c r="B40" s="1">
-        <v>6.5160757892754394E-5</v>
-      </c>
-      <c r="C40">
-        <v>-0.254539926997216</v>
-      </c>
-      <c r="D40">
-        <v>2.2467051716431201</v>
-      </c>
-      <c r="O40">
-        <f t="shared" si="1"/>
-        <v>-2.124468572579501E-5</v>
-      </c>
-      <c r="P40">
-        <f t="shared" si="2"/>
-        <v>-0.29637222340385549</v>
-      </c>
-      <c r="Q40">
-        <f t="shared" si="3"/>
-        <v>2.2898107888225052</v>
-      </c>
-      <c r="S40">
-        <v>-3.6905248181707401E-4</v>
-      </c>
-      <c r="T40" s="1">
-        <v>-0.122053773079514</v>
-      </c>
-      <c r="U40">
-        <v>1.5610249057421499</v>
-      </c>
-      <c r="W40">
-        <v>3.2656311036548399E-4</v>
-      </c>
-      <c r="X40">
-        <v>-0.47069067372819701</v>
-      </c>
-      <c r="Y40">
-        <v>3.0185966719028601</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>12.4</v>
-      </c>
-      <c r="B41" s="1">
-        <v>6.82838823474201E-5</v>
-      </c>
-      <c r="C41">
-        <v>-0.26945280777187602</v>
-      </c>
-      <c r="D41">
-        <v>2.35299773451744</v>
-      </c>
-      <c r="O41">
-        <f t="shared" si="1"/>
-        <v>-2.2605007555017001E-5</v>
-      </c>
-      <c r="P41">
-        <f t="shared" si="2"/>
-        <v>-0.31395679004700899</v>
-      </c>
-      <c r="Q41">
-        <f t="shared" si="3"/>
-        <v>2.3982530249499852</v>
-      </c>
-      <c r="S41">
-        <v>-3.87636371728457E-4</v>
-      </c>
-      <c r="T41" s="1">
-        <v>-0.12904889268056699</v>
-      </c>
-      <c r="U41">
-        <v>1.6338385858425</v>
-      </c>
-      <c r="W41">
-        <v>3.42426356618423E-4</v>
-      </c>
-      <c r="X41">
-        <v>-0.49886468741345102</v>
-      </c>
-      <c r="Y41">
-        <v>3.1626674640574701</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>12.8</v>
-      </c>
-      <c r="B42" s="1">
-        <v>7.1430312481595204E-5</v>
-      </c>
-      <c r="C42">
-        <v>-0.28444251824105798</v>
-      </c>
-      <c r="D42">
-        <v>2.4595484630849</v>
-      </c>
-      <c r="O42">
-        <f t="shared" si="1"/>
-        <v>-2.39760758738085E-5</v>
-      </c>
-      <c r="P42">
-        <f t="shared" si="2"/>
-        <v>-0.33164295300906599</v>
-      </c>
-      <c r="Q42">
-        <f t="shared" si="3"/>
-        <v>2.50697020401604</v>
-      </c>
-      <c r="S42">
-        <v>-4.0631109916149598E-4</v>
-      </c>
-      <c r="T42" s="1">
-        <v>-0.13607392519272299</v>
-      </c>
-      <c r="U42">
-        <v>1.7067966204903799</v>
-      </c>
-      <c r="W42">
-        <v>3.5835894741387898E-4</v>
-      </c>
-      <c r="X42">
-        <v>-0.52721198082540899</v>
-      </c>
-      <c r="Y42">
-        <v>3.3071437875416998</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>13.2</v>
-      </c>
-      <c r="B43" s="1">
-        <v>7.4598517352964796E-5</v>
-      </c>
-      <c r="C43">
-        <v>-0.29948998548118</v>
-      </c>
-      <c r="D43">
-        <v>2.5662927508767801</v>
-      </c>
-      <c r="O43">
-        <f t="shared" si="1"/>
-        <v>-2.5354618092791523E-5</v>
-      </c>
-      <c r="P43">
-        <f t="shared" si="2"/>
-        <v>-0.34940695642561703</v>
-      </c>
-      <c r="Q43">
-        <f t="shared" si="3"/>
-        <v>2.615895751443555</v>
-      </c>
-      <c r="S43">
-        <v>-4.2505805718850802E-4</v>
-      </c>
-      <c r="T43">
-        <v>-0.14312071510343999</v>
-      </c>
-      <c r="U43">
-        <v>1.7798589956486199</v>
-      </c>
-      <c r="W43">
-        <v>3.7434882100292497E-4</v>
-      </c>
-      <c r="X43">
-        <v>-0.55569319774779402</v>
-      </c>
-      <c r="Y43">
-        <v>3.4519325072384901</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>13.6</v>
-      </c>
-      <c r="B44" s="1">
-        <v>7.7786390912709202E-5</v>
-      </c>
-      <c r="C44">
-        <v>-0.31457921540586498</v>
-      </c>
-      <c r="D44">
-        <v>2.6731767028844602</v>
-      </c>
-      <c r="O44">
-        <f t="shared" si="1"/>
-        <v>-2.6737200051755013E-5</v>
-      </c>
-      <c r="P44">
-        <f t="shared" si="2"/>
-        <v>-0.36722882990337052</v>
-      </c>
-      <c r="Q44">
-        <f t="shared" si="3"/>
-        <v>2.7249745489266548</v>
-      </c>
-      <c r="S44">
-        <v>-4.4385944321260302E-4</v>
-      </c>
-      <c r="T44">
-        <v>-0.150182680020714</v>
-      </c>
-      <c r="U44">
-        <v>1.85299371822562</v>
-      </c>
-      <c r="W44">
-        <v>3.9038504310909299E-4</v>
-      </c>
-      <c r="X44">
-        <v>-0.58427497978602705</v>
-      </c>
-      <c r="Y44">
-        <v>3.5969553796276901</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>14</v>
-      </c>
-      <c r="B45" s="1">
-        <v>8.0990886188597502E-5</v>
-      </c>
-      <c r="C45">
-        <v>-0.32969683035998598</v>
-      </c>
-      <c r="D45">
-        <v>2.7801554474293999</v>
-      </c>
-      <c r="O45">
-        <f t="shared" si="1"/>
-        <v>-2.8120867003573503E-5</v>
-      </c>
-      <c r="P45">
-        <f t="shared" si="2"/>
-        <v>-0.38509146667698552</v>
-      </c>
-      <c r="Q45">
-        <f t="shared" si="3"/>
-        <v>2.8341600328399998</v>
-      </c>
-      <c r="S45">
-        <v>-4.6269905431805999E-4</v>
-      </c>
-      <c r="T45">
-        <v>-0.15725456079542199</v>
-      </c>
-      <c r="U45">
-        <v>1.9261753548714</v>
-      </c>
-      <c r="W45">
-        <v>4.0645732031091298E-4</v>
-      </c>
-      <c r="X45">
-        <v>-0.61292837255854904</v>
-      </c>
-      <c r="Y45">
-        <v>3.7421447108086001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>14.4</v>
-      </c>
-      <c r="B46" s="1">
-        <v>8.4207901023708296E-5</v>
-      </c>
-      <c r="C46">
-        <v>-0.34483211679718101</v>
-      </c>
-      <c r="D46">
-        <v>2.8871931385829002</v>
-      </c>
-      <c r="O46">
-        <f t="shared" si="1"/>
-        <v>-2.9503575261336483E-5</v>
-      </c>
-      <c r="P46">
-        <f t="shared" si="2"/>
-        <v>-0.40298088899929901</v>
-      </c>
-      <c r="Q46">
-        <f t="shared" si="3"/>
-        <v>2.9434147704318949</v>
-      </c>
-      <c r="S46">
-        <v>-4.8156337570138999E-4</v>
-      </c>
-      <c r="T46">
-        <v>-0.16433239045032899</v>
-      </c>
-      <c r="U46">
-        <v>1.99938489114478</v>
-      </c>
-      <c r="W46">
-        <v>4.2255622517871702E-4</v>
-      </c>
-      <c r="X46">
-        <v>-0.64162938754826904</v>
-      </c>
-      <c r="Y46">
-        <v>3.88744464971901</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>14.8</v>
-      </c>
-      <c r="B47" s="1">
-        <v>8.7432800133527494E-5</v>
-      </c>
-      <c r="C47">
-        <v>-0.35997654651227801</v>
-      </c>
-      <c r="D47">
-        <v>2.9942612867729599</v>
-      </c>
-      <c r="O47">
-        <f t="shared" si="1"/>
-        <v>-3.0884323736658504E-5</v>
-      </c>
-      <c r="P47">
-        <f t="shared" si="2"/>
-        <v>-0.42088619238200597</v>
-      </c>
-      <c r="Q47">
-        <f t="shared" si="3"/>
-        <v>3.052709999296995</v>
-      </c>
-      <c r="S47">
-        <v>-5.0044203732986698E-4</v>
-      </c>
-      <c r="T47">
-        <v>-0.17141333649934201</v>
-      </c>
-      <c r="U47">
-        <v>2.0726088672214802</v>
-      </c>
-      <c r="W47">
-        <v>4.3867338985654998E-4</v>
-      </c>
-      <c r="X47">
-        <v>-0.67035904826466997</v>
-      </c>
-      <c r="Y47">
-        <v>4.0328111313725099</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>15.2</v>
-      </c>
-      <c r="B48" s="1">
-        <v>9.06615542717931E-5</v>
-      </c>
-      <c r="C48">
-        <v>-0.37512442047442202</v>
-      </c>
-      <c r="D48">
-        <v>3.1013409009364001</v>
-      </c>
-      <c r="O48">
-        <f t="shared" si="1"/>
-        <v>-3.2263028006859485E-5</v>
-      </c>
-      <c r="P48">
-        <f t="shared" si="2"/>
-        <v>-0.43879922138750249</v>
-      </c>
-      <c r="Q48">
-        <f t="shared" si="3"/>
-        <v>3.1620245298823448</v>
-      </c>
-      <c r="S48">
-        <v>-5.1932774911903599E-4</v>
-      </c>
-      <c r="T48">
-        <v>-0.178495515828337</v>
-      </c>
-      <c r="U48">
-        <v>2.1458384133437902</v>
-      </c>
-      <c r="W48">
-        <v>4.5480169310531702E-4</v>
-      </c>
-      <c r="X48">
-        <v>-0.69910292694666798</v>
-      </c>
-      <c r="Y48">
-        <v>4.1782106464208999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>15.6</v>
-      </c>
-      <c r="B49" s="1">
-        <v>9.3891633830800006E-5</v>
-      </c>
-      <c r="C49">
-        <v>-0.39027278538336202</v>
-      </c>
-      <c r="D49">
-        <v>3.2084221337326402</v>
-      </c>
-      <c r="O49">
-        <f t="shared" si="1"/>
-        <v>-3.3640184042850035E-5</v>
-      </c>
-      <c r="P49">
-        <f t="shared" si="2"/>
-        <v>-0.4567148976825135</v>
-      </c>
-      <c r="Q49">
-        <f t="shared" si="3"/>
-        <v>3.2713453708924147</v>
-      </c>
-      <c r="S49">
-        <v>-5.3821609800961605E-4</v>
-      </c>
-      <c r="T49">
-        <v>-0.185577885634953</v>
-      </c>
-      <c r="U49">
-        <v>2.2190686845959502</v>
-      </c>
-      <c r="W49">
-        <v>4.7093572992391598E-4</v>
-      </c>
-      <c r="X49">
-        <v>-0.72785190973007396</v>
-      </c>
-      <c r="Y49">
-        <v>4.3236220571888797</v>
-      </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>16</v>
-      </c>
-      <c r="B50" s="1">
-        <v>9.7121971781021098E-5</v>
-      </c>
-      <c r="C50">
-        <v>-0.40542082965466397</v>
-      </c>
-      <c r="D50">
-        <v>3.3155022994703001</v>
-      </c>
-      <c r="O50">
-        <f t="shared" si="1"/>
-        <v>-3.5016677871371982E-5</v>
-      </c>
-      <c r="P50">
-        <f t="shared" si="2"/>
-        <v>-0.47463067710617896</v>
-      </c>
-      <c r="Q50">
-        <f t="shared" si="3"/>
-        <v>3.3806663685807501</v>
-      </c>
-      <c r="S50">
-        <v>-5.5710519383129695E-4</v>
-      </c>
-      <c r="T50">
-        <v>-0.19266020386677399</v>
-      </c>
-      <c r="U50">
-        <v>2.2922986778488399</v>
-      </c>
-      <c r="W50">
-        <v>4.8707183808855298E-4</v>
-      </c>
-      <c r="X50">
-        <v>-0.75660115034558395</v>
-      </c>
-      <c r="Y50">
-        <v>4.4690340593126603</v>
+        <v>15.8746638648787</v>
+      </c>
+      <c r="B25">
+        <v>2.5460422855145799</v>
       </c>
     </row>
   </sheetData>
